--- a/Documentation/Gestion de projet/Gestion.xlsx
+++ b/Documentation/Gestion de projet/Gestion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\Desktop\MLA_Project\Documentation\Gestion de projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\Desktop\Projet_MLA\Documentation\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F770CD-25E4-4FE1-8F1F-13DBA5CDAA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787478D6-F9F6-467A-A04F-A124147410D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,8 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -733,8 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -762,6 +760,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:M30"/>
+  <dimension ref="C2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,48 +1066,48 @@
   <sheetData>
     <row r="2" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M3" s="61"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="4:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="61">
         <v>45976</v>
       </c>
     </row>
     <row r="5" spans="4:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="62"/>
+      <c r="M5" s="60"/>
     </row>
     <row r="6" spans="4:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1115,47 +1116,46 @@
       <c r="F6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="21"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="17"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="53"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:13" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="4:13" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1163,43 +1163,41 @@
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="4:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="4:13" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="4:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1209,112 +1207,114 @@
         <v>40</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="4:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="62" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="4:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="4:13" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>35</v>
+      <c r="F15" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="4:13" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="60" t="s">
+      <c r="D16" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="4:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="4:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="42" t="s">
+      <c r="D18" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="4:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="47" t="s">
+      <c r="D19" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="4:8" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="33" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="4:8" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="4:8" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -1337,12 +1337,12 @@
         <v>25</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="4:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -1350,12 +1350,12 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -1363,42 +1363,42 @@
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33" t="s">
+      <c r="F25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="4:8" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="4:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1408,38 +1408,35 @@
         <v>40</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="4:8" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="38" t="s">
+      <c r="G28" s="22"/>
+      <c r="H28" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="4:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D30" s="21"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
